--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavan\eclipse-workspace\capstoneProject\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavan\eclipse-workspace\NopCommerce-capstone\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F65921C-86CC-49BB-8FAF-ABBB9603C0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6610C3-5539-47AF-8E28-1B9D72DFF564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Email</t>
   </si>
@@ -34,15 +34,6 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>Pavan@123</t>
-  </si>
-  <si>
-    <t>pavan@gmail.com</t>
-  </si>
-  <si>
-    <t>pavan1@gmail.com</t>
-  </si>
-  <si>
     <t>pavan</t>
   </si>
   <si>
@@ -50,6 +41,27 @@
   </si>
   <si>
     <t>two</t>
+  </si>
+  <si>
+    <t>Pavan</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>pavan453@gmail.com</t>
+  </si>
+  <si>
+    <t>pavan512@gmail.com</t>
+  </si>
+  <si>
+    <t>pavan612@gmail.com</t>
+  </si>
+  <si>
+    <t>Pavan123</t>
+  </si>
+  <si>
+    <t>pavan123</t>
   </si>
 </sst>
 </file>
@@ -400,17 +412,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -430,38 +442,54 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{60CB63D2-03FB-4E8B-9802-2261A34497FD}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{39C7CC78-7226-4DAF-8E93-62F58D62F8D5}"/>
+    <hyperlink ref="D2" r:id="rId1" display="Pavan@123" xr:uid="{60CB63D2-03FB-4E8B-9802-2261A34497FD}"/>
+    <hyperlink ref="D3" r:id="rId2" display="Pavan@123" xr:uid="{39C7CC78-7226-4DAF-8E93-62F58D62F8D5}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{78022492-09C7-47D4-9DB4-29D41069ED5F}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{A4011F17-2142-409A-996F-CBF19EFFA1C1}"/>
+    <hyperlink ref="D4" r:id="rId5" display="pavan@123" xr:uid="{2763CD95-924C-4B7A-842F-EE0FE4B497AE}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{94EF1767-09D6-4160-8D2E-0614E3B27652}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
